--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43531,6 +43531,41 @@
         <v>7500</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43566,6 +43566,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>4200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43601,6 +43601,41 @@
         <v>4200</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>16200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43636,6 +43636,43 @@
         <v>16200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43710,6 +43710,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43745,6 +43745,41 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>26000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43780,6 +43780,41 @@
         <v>26000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>231300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43815,6 +43815,41 @@
         <v>231300</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43850,6 +43850,43 @@
         <v>700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43887,6 +43887,43 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43924,6 +43924,43 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43961,6 +43961,76 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>196300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44031,6 +44031,76 @@
         <v>196300</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>17400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44101,6 +44101,41 @@
         <v>17400</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44136,6 +44136,41 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>18300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44171,6 +44171,43 @@
         <v>18300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44208,6 +44208,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>46000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44243,6 +44243,76 @@
         <v>46000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>15300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44313,6 +44313,41 @@
         <v>15300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>49900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44348,6 +44348,41 @@
         <v>49900</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>61100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2465"/>
+  <dimension ref="A1:I2466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87293,6 +87293,41 @@
         <v>61100</v>
       </c>
     </row>
+    <row r="2466">
+      <c r="A2466" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2466" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D2466" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E2466" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2466" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2466" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2466" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2466" t="n">
+        <v>41500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2466"/>
+  <dimension ref="A1:I2467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87328,6 +87328,41 @@
         <v>41500</v>
       </c>
     </row>
+    <row r="2467">
+      <c r="A2467" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E2467" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2467" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2467" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2467" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I2467" t="n">
+        <v>38000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2467"/>
+  <dimension ref="A1:I2468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87363,6 +87363,41 @@
         <v>38000</v>
       </c>
     </row>
+    <row r="2468">
+      <c r="A2468" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E2468" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2468" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2468" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2468" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2468" t="n">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2468"/>
+  <dimension ref="A1:I2469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87398,6 +87398,43 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="2469">
+      <c r="A2469" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2469" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D2469" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E2469" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2469" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2469" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2469" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2469" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2469"/>
+  <dimension ref="A1:I2470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87435,6 +87435,41 @@
         </is>
       </c>
     </row>
+    <row r="2470">
+      <c r="A2470" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2470" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D2470" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E2470" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2470" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2470" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2470" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2470" t="n">
+        <v>125600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2470"/>
+  <dimension ref="A1:I2471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87470,6 +87470,41 @@
         <v>125600</v>
       </c>
     </row>
+    <row r="2471">
+      <c r="A2471" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2471" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D2471" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E2471" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2471" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2471" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2471" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2471" t="n">
+        <v>129000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2471"/>
+  <dimension ref="A1:I2472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87505,6 +87505,41 @@
         <v>129000</v>
       </c>
     </row>
+    <row r="2472">
+      <c r="A2472" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E2472" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2472" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2472" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2472" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2472" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2472"/>
+  <dimension ref="A1:I2473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87540,6 +87540,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2473">
+      <c r="A2473" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E2473" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2473" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2473" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2473" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2473" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2473"/>
+  <dimension ref="A1:I2474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87575,6 +87575,41 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="2474">
+      <c r="A2474" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E2474" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2474" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2474" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2474" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2474" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2474"/>
+  <dimension ref="A1:I2475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87610,6 +87610,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2475">
+      <c r="A2475" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E2475" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2475" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2475" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2475" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2475" t="n">
+        <v>12700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2475"/>
+  <dimension ref="A1:I2476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87645,6 +87645,43 @@
         <v>12700</v>
       </c>
     </row>
+    <row r="2476">
+      <c r="A2476" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E2476" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2476" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2476" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2476" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2476" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2476"/>
+  <dimension ref="A1:I2477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87682,6 +87682,41 @@
         </is>
       </c>
     </row>
+    <row r="2477">
+      <c r="A2477" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E2477" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2477" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2477" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2477" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I2477" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2477"/>
+  <dimension ref="A1:I2478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87717,6 +87717,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2478">
+      <c r="A2478" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D2478" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E2478" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2478" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2478" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2478" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2478" t="n">
+        <v>29000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2478"/>
+  <dimension ref="A1:I2479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87752,6 +87752,43 @@
         <v>29000</v>
       </c>
     </row>
+    <row r="2479">
+      <c r="A2479" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D2479" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E2479" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2479" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2479" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2479" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2479" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7016.xlsx
+++ b/data/7016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2479"/>
+  <dimension ref="A1:I2480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87789,6 +87789,43 @@
         </is>
       </c>
     </row>
+    <row r="2480">
+      <c r="A2480" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>CHUAN</t>
+        </is>
+      </c>
+      <c r="E2480" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2480" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2480" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2480" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2480" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
